--- a/data/statistic_results/sentiment_福士德.xlsx
+++ b/data/statistic_results/sentiment_福士德.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.7168189308185464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9213882749030056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.965305417977216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.09477244403458029</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9735270099310629</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4842081754378507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9809544918554967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.6988340366895107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.08300896358103693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9994956922779796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5974847359770976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9999538126511769</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.2717068248023911</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9016048922929123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8914564692150433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9821234305766451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7753264351208722</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9969531386766157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.159033357694784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7852245383796348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3142771519746193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8570635045692294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.880182781473769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9991709441785241</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8126621251594224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9053365578412171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.5711712574425953</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9913756557131874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2717622125395496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.8661500697522349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9428544020840683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9988079695792162</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.224167309214091</v>
+        <v>-0.1120836546070455</v>
       </c>
     </row>
     <row r="35">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9994701607079828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.6186231940056566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.05507546240884831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9999037071866952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.7246437554774863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9682663096152759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9939284599875373</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="42">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.109091537269377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.2750071497302546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.9833377895807049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9958161138331032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.1238268363119215</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="47">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9360842748965921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.8965424871776608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.8525442116555548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.9984796144587245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.8766007594011174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9818974939612133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9852536239392804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9839629035739337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.4974417512359977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9920672180245982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9393697695226275</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.6041258477618634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-0.2302770410773032</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.8353714836063932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.9988974087509619</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="62">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.8757712939955669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-0.3471726469455545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2607741418387384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.9670372862842178</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7091179413541286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-0.9113735093614419</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="68">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9973572839147684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.9147317465922522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7627415677279885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.4497425978571172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.7288408043093295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.9996040588456043</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="74">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3770624412618648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.6515856665537143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.94296714027933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1902061456354869</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.9999449965099076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7224264705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.9999728928206675</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="81">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.996585933750461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.07245001420569297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2532703489817738</v>
+        <v>0.1266351744908869</v>
       </c>
     </row>
     <row r="84">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9918156731908352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.9599967357528933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9912414351089491</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="87">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.07268853381188833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.8808409444103413</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.9999990000936736</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="90">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.8424483853330893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.6799745960627674</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9998483444497539</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.9518595141606638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9499996547769241</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="96">
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.8926807491111572</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.9953182228284747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.8979888118028618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.5384544401211031</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.2728779538207344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.6762461318719806</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="102">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9996373321200873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9342900984271225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.8422853634468261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.8753028119650188</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9802469988643865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.8974831226607449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-0.03404077328310207</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9724727767486601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9978038327870795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9979914838298469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9985147695314576</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.8462609058242914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9749825153931986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9001993848193723</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="116">
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.3514344982988469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.8579284213495748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.1891891891891899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.189955908629549</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.962878602414633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.3608162932419383</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.361344138388604</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.8994810327383234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-0.7391304347826089</v>
+        <v>-0.3695652173913044</v>
       </c>
     </row>
     <row r="125">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.9646490320976446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.8865172494344964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9048404578541389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.2213337712011691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.1866896257127801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3713,7 +3713,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.9744191239098181</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="132">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.8023533144307968</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="133">
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-0.2431395934706269</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="134">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.6433286498861379</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="135">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-0.2993334321234069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8370282450272217</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.9034053717327584</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9975735385622595</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="139">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.9852476996870332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9851108867085168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9986365818360061</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="142">
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.7417956952825724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9090423954183886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.984302219682528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.8208806343858417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9163979850059478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.2772696460777659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.9988925865952083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-0.9985301469216137</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9218071040603841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-0.3377793016032091</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152">
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.8680180045307622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.7809230104957836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.9996501938386799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.9456771656981966</v>
+        <v>-0.4728385828490983</v>
       </c>
     </row>
     <row r="156">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.8725548314833633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.199422429585876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.7859188242844026</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159">
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.9939338963554498</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9999958433614982</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="161">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8355001558748607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.55419491132578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.995294157934131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9999822491854415</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="165">
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.9933678326407638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.8112825662400007</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="167">
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.8992920051928535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9984299374111538</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="169">
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-0.4593049218770857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.9140762152974786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.347438078312581</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="172">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-0.05164130683014045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.780121814244739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-0.08447259581237887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4813,7 +4813,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.5939990339212091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.4906231591516146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9999999999992188</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="178">
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9220989282162277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.8099679411385723</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-0.9999994795300471</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.7116270483278548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9861260069128748</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9897332057066413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.9895894200267772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.8690837142357488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.1092307104970307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.6259553318265942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.9449847302245995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9990810575020608</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="190">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.8952675218314365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-0.7928107555843233</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="192">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.3916799724746101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9669959709823979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.9999999977121683</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="195">
@@ -5313,7 +5313,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.9993226224276306</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="196">
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-0.9983572964835536</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.4018612528878551</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-0.1287362563632048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9978879542494565</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="200">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.09739526518302144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9935217884374754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-0.2520967949008286</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="203">
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9999273413142906</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="204">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.9731772958874048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.9920480393587809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.999961457268653</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207">
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.4827264962722366</v>
+        <v>0.2413632481361183</v>
       </c>
     </row>
     <row r="208">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.3898849369292912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.1215499413779009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.3628398692613801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-0.1551644093712881</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9667019198053901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-0.9078676724106749</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214">
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-0.1869246564553477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.9754941441577012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.7420980461316136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.2998845413658269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.8973151308244938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.5696672091255812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.3529411764705881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-0.7735104015370928</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="222">
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.8431753603553558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9987484458075508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-0.6704985507511299</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="225">
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.4592303251043246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-0.8662015117990944</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="227">
@@ -6113,7 +6113,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.9928329885902585</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="228">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-0.9804548702751836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-0.9992099442857298</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230">
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-0.3339039194336104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6213,7 +6213,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.9877192830332062</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="232">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.007196591911411865</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233">
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-0.5429309626262604</v>
+        <v>-0.2714654813131302</v>
       </c>
     </row>
     <row r="234">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-0.6086479605758961</v>
+        <v>-0.304323980287948</v>
       </c>
     </row>
     <row r="235">
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.4757776028482208</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="236">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.9799361290303081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.9822203474185747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.01787982175478509</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="239">
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-0.7735938644228837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.756873468949959</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="241">
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.6517931084297575</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="242">
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.9534616431858816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.9697364388248537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.69938132911162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6563,7 +6563,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.2069910890911406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.2311107151197407</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="247">
@@ -6613,7 +6613,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.9914777468834051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.9338186988938715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-0.9600731735393127</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="250">
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.7824295798942293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.2598698670475679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.8465971016616294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6763,7 +6763,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.9997239811647034</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="254">
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.669494831484071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.9819799180899151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.2796817589147529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.9992814758588875</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="258">
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.978278514378816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-0.9605775509082017</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="260">
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.928133741754477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-0.9837686652702353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.8256962224103275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.906359203284095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.9559785042172753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.7679765739194757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.8719669717991281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.214256038478865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.9926299509359064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.8214277135320638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.7402420333524105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.6868383194177619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.4496965456966855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7263,7 +7263,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.9385551551120712</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="274">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.9832949498801016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.9027477879015844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -7338,7 +7338,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.9740770728273693</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="277">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.9650622294459934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.8625186989782732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.4880674051851133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.9987008142647011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.8075445048418244</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="282">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.6518099871860934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.7038100245495882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.9999284842430574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.5196992315271232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.9183237195499918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7613,7 +7613,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.9930123344708448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-0.8443213387667741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.9996321270011432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.9036246579169955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.09763601280632472</v>
+        <v>0.04881800640316236</v>
       </c>
     </row>
     <row r="292">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.9881899882211267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.3662739296764552</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="294">
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-0.5314990003292959</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="295">
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.3263572089545048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.9801447144587374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.5196992315271232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.8929130494882862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -7913,7 +7913,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.5329609516101819</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.7170583925479095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.5077018601208019</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="302">
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.9952601396690075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -8013,7 +8013,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-0.2571601139940045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.6922069798600978</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="305">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.8927866832189173</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="306">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.9680869710466597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-0.5445575361332207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.8725723863498043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -8163,7 +8163,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.9803431165103831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.9638207061082136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -8213,7 +8213,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.9967705972699734</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
